--- a/Project_python/ref/Bertopic/optimization_bertopic.xlsx
+++ b/Project_python/ref/Bertopic/optimization_bertopic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/alsanron_upv_edu_es/Documents/TFM/Repositories/NLP-SDGs_Classificator/Project_python/ref/Bertopic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="540" documentId="11_F25DC773A252ABDACC1048D4495E7D865ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{034A8BD2-2D95-42DE-A845-8D454BC45955}"/>
+  <xr:revisionPtr revIDLastSave="547" documentId="11_F25DC773A252ABDACC1048D4495E7D865ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0DFA206-68CC-44A3-8675-06E1D39D3A4E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>False</t>
   </si>
@@ -394,7 +394,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +469,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -492,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>13</v>
@@ -502,33 +502,15 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
